--- a/mbs-perturbation/mega/svm/smote/mega-svm-linear-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-linear-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5352941176470588</v>
+        <v>0.556923076923077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.978494623655914</v>
+        <v>0.9731182795698925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6920152091254753</v>
+        <v>0.7084148727984344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6782431494970517</v>
+        <v>0.7259365244536941</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7192982456140351</v>
+        <v>0.7116564417177914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.664756446991404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7620245115042201</v>
+        <v>0.7726760319112037</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.7696335078534032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8600271707711875</v>
+        <v>0.8419325933633948</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6738197424892703</v>
+        <v>0.65748031496063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8440860215053764</v>
+        <v>0.8978494623655914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7494033412887828</v>
+        <v>0.7590909090909091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8453065969195002</v>
+        <v>0.8405986631793083</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.98125</v>
+        <v>0.9867549668874173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8486486486486486</v>
+        <v>0.8054054054054054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9101449275362319</v>
+        <v>0.8869047619047619</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9140075559430398</v>
+        <v>0.9122638767800058</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7314273706450223</v>
+        <v>0.7325629600977831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8256437082243535</v>
+        <v>0.8180703283929089</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7622944883071849</v>
+        <v>0.7577600997277825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8119217969269998</v>
+        <v>0.8186815379375213</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/smote/mega-svm-linear-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-linear-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.556923076923077</v>
+        <v>0.5331010452961672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9731182795698925</v>
+        <v>0.9053254437869822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7084148727984344</v>
+        <v>0.6710526315789473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7259365244536941</v>
+        <v>0.7056825741395609</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7116564417177914</v>
+        <v>0.6448598130841121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8165680473372781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.664756446991404</v>
+        <v>0.7206266318537858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7726760319112037</v>
+        <v>0.809898112811176</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.8650306748466258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7696335078534032</v>
+        <v>0.8493975903614458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8419325933633948</v>
+        <v>0.9191204789748257</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.65748031496063</v>
+        <v>0.7868020304568528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8978494623655914</v>
+        <v>0.9171597633136095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7590909090909091</v>
+        <v>0.8469945355191257</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8405986631793083</v>
+        <v>0.9180000700255595</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9867549668874173</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8054054054054054</v>
+        <v>0.8520710059171598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8869047619047619</v>
+        <v>0.9171974522292993</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9122638767800058</v>
+        <v>0.9818983929134133</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7325629600977831</v>
+        <v>0.764579402391924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8180703283929089</v>
+        <v>0.8650887573964496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7577600997277825</v>
+        <v>0.8010537683085207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8186815379375213</v>
+        <v>0.8669199257729071</v>
       </c>
     </row>
   </sheetData>
